--- a/MianShiInfo/公司详情.xlsx
+++ b/MianShiInfo/公司详情.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\15_leetcoding\MianShiInfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3F191C6-3912-4ED7-A5AD-7EBD086D2974}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{915E5060-F75D-4212-9F21-9DE39062CA7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AE34DDA8-51BA-4425-B233-805776FC3EEE}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="165">
   <si>
     <t>公司</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -807,6 +807,10 @@
     <t>2020-07-05 下午</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>已面试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -873,12 +877,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -898,7 +908,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -930,6 +940,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1250,7 +1266,7 @@
   <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1646,8 +1662,8 @@
       <c r="D17" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>127</v>
+      <c r="E17" s="12" t="s">
+        <v>164</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>128</v>
@@ -1751,8 +1767,8 @@
       <c r="D23" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>10</v>
+      <c r="E23" s="12" t="s">
+        <v>164</v>
       </c>
       <c r="F23" s="6" t="s">
         <v>138</v>
@@ -1924,8 +1940,8 @@
       <c r="D33" t="s">
         <v>7</v>
       </c>
-      <c r="E33" t="s">
-        <v>10</v>
+      <c r="E33" s="11" t="s">
+        <v>164</v>
       </c>
       <c r="F33" t="s">
         <v>154</v>

--- a/MianShiInfo/公司详情.xlsx
+++ b/MianShiInfo/公司详情.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\15_leetcoding\MianShiInfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{915E5060-F75D-4212-9F21-9DE39062CA7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27430003-44A9-4F3D-B2AC-3AE028CE86B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AE34DDA8-51BA-4425-B233-805776FC3EEE}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="166">
   <si>
     <t>公司</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -772,9 +772,6 @@
     <t>博文厚德</t>
   </si>
   <si>
-    <t>nlp工程师</t>
-  </si>
-  <si>
     <t>偶邦智能</t>
   </si>
   <si>
@@ -809,6 +806,14 @@
   </si>
   <si>
     <t>已面试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nlp工程师（翻译方向）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>翻译</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1266,7 +1271,7 @@
   <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1286,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>1</v>
@@ -1654,7 +1659,7 @@
         <v>124</v>
       </c>
       <c r="B17" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>125</v>
@@ -1663,7 +1668,7 @@
         <v>126</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>128</v>
@@ -1713,8 +1718,8 @@
       <c r="D20" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>10</v>
+      <c r="E20" s="8" t="s">
+        <v>157</v>
       </c>
       <c r="F20" s="6" t="s">
         <v>130</v>
@@ -1759,7 +1764,7 @@
         <v>135</v>
       </c>
       <c r="B23" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>137</v>
@@ -1768,7 +1773,7 @@
         <v>126</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F23" s="6" t="s">
         <v>138</v>
@@ -1836,7 +1841,7 @@
         <v>126</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F27" s="6" t="s">
         <v>145</v>
@@ -1927,12 +1932,12 @@
         <v>130</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
+        <v>161</v>
+      </c>
+      <c r="B33" s="10" t="s">
         <v>162</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>163</v>
       </c>
       <c r="C33" t="s">
         <v>6</v>
@@ -1941,15 +1946,18 @@
         <v>7</v>
       </c>
       <c r="E33" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="F33" t="s">
         <v>164</v>
       </c>
-      <c r="F33" t="s">
+      <c r="G33" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>154</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>155</v>
       </c>
       <c r="C34" t="s">
         <v>6</v>
@@ -1961,12 +1969,12 @@
         <v>40</v>
       </c>
       <c r="F34" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>156</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>157</v>
       </c>
       <c r="C35" t="s">
         <v>6</v>
@@ -1975,10 +1983,10 @@
         <v>7</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F35" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>

--- a/MianShiInfo/公司详情.xlsx
+++ b/MianShiInfo/公司详情.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\15_leetcoding\MianShiInfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27430003-44A9-4F3D-B2AC-3AE028CE86B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{727E0562-0AF0-495D-A0D4-B1E4521A357E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AE34DDA8-51BA-4425-B233-805776FC3EEE}"/>
   </bookViews>
@@ -1271,7 +1271,7 @@
   <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="A2" sqref="A2:H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/MianShiInfo/公司详情.xlsx
+++ b/MianShiInfo/公司详情.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\15_leetcoding\MianShiInfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{727E0562-0AF0-495D-A0D4-B1E4521A357E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4A6C31F-D178-4078-9093-E021388BC83E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AE34DDA8-51BA-4425-B233-805776FC3EEE}"/>
+    <workbookView xWindow="16575" yWindow="90" windowWidth="12135" windowHeight="10230" xr2:uid="{AE34DDA8-51BA-4425-B233-805776FC3EEE}"/>
   </bookViews>
   <sheets>
     <sheet name="已投" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="167">
   <si>
     <t>公司</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -814,6 +814,10 @@
   </si>
   <si>
     <t>翻译</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邀请面试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1271,7 +1275,7 @@
   <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:H35"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1346,7 +1350,7 @@
         <v>7</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>10</v>
+        <v>166</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>13</v>
@@ -1368,8 +1372,8 @@
       <c r="D4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>10</v>
+      <c r="E4" s="8" t="s">
+        <v>157</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>16</v>
@@ -1461,7 +1465,7 @@
         <v>7</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>10</v>
+        <v>157</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>27</v>
@@ -1857,8 +1861,8 @@
       <c r="D28" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="E28" s="7" t="s">
-        <v>40</v>
+      <c r="E28" s="12" t="s">
+        <v>163</v>
       </c>
       <c r="F28" t="s">
         <v>147</v>

--- a/MianShiInfo/公司详情.xlsx
+++ b/MianShiInfo/公司详情.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\15_leetcoding\MianShiInfo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fangbao/zooprog/02_leetcoding/MianShiInfo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4A6C31F-D178-4078-9093-E021388BC83E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C5761B7-2C1A-E441-988A-FFBDAC09A009}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16575" yWindow="90" windowWidth="12135" windowHeight="10230" xr2:uid="{AE34DDA8-51BA-4425-B233-805776FC3EEE}"/>
+    <workbookView xWindow="1220" yWindow="460" windowWidth="27580" windowHeight="17540" xr2:uid="{AE34DDA8-51BA-4425-B233-805776FC3EEE}"/>
   </bookViews>
   <sheets>
     <sheet name="已投" sheetId="1" r:id="rId1"/>
@@ -24,12 +24,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -825,7 +819,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -917,7 +911,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -948,14 +942,17 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1275,26 +1272,26 @@
   <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.25" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.75" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.25" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31.75" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="52.875" customWidth="1"/>
+    <col min="1" max="1" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="52.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="12" t="s">
         <v>158</v>
       </c>
       <c r="C1" s="7" t="s">
@@ -1316,7 +1313,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1339,7 +1336,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -1362,7 +1359,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -1385,7 +1382,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -1408,7 +1405,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -1431,7 +1428,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -1454,7 +1451,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -1477,7 +1474,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>36</v>
       </c>
@@ -1500,7 +1497,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>38</v>
       </c>
@@ -1523,7 +1520,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>44</v>
       </c>
@@ -1546,7 +1543,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>48</v>
       </c>
@@ -1569,7 +1566,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>50</v>
       </c>
@@ -1592,7 +1589,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>54</v>
       </c>
@@ -1615,7 +1612,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>57</v>
       </c>
@@ -1638,7 +1635,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>61</v>
       </c>
@@ -1658,11 +1655,11 @@
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>124</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="12" t="s">
         <v>160</v>
       </c>
       <c r="C17" s="7" t="s">
@@ -1671,14 +1668,14 @@
       <c r="D17" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="E17" s="12" t="s">
+      <c r="E17" s="11" t="s">
         <v>163</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>129</v>
       </c>
@@ -1695,7 +1692,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
         <v>131</v>
       </c>
@@ -1712,7 +1709,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
         <v>132</v>
       </c>
@@ -1729,7 +1726,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
         <v>133</v>
       </c>
@@ -1746,7 +1743,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
         <v>134</v>
       </c>
@@ -1763,11 +1760,11 @@
         <v>130</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
         <v>135</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="12" t="s">
         <v>159</v>
       </c>
       <c r="C23" s="7" t="s">
@@ -1776,14 +1773,14 @@
       <c r="D23" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="E23" s="12" t="s">
+      <c r="E23" s="11" t="s">
         <v>163</v>
       </c>
       <c r="F23" s="6" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
         <v>136</v>
       </c>
@@ -1800,7 +1797,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
         <v>139</v>
       </c>
@@ -1817,7 +1814,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
         <v>140</v>
       </c>
@@ -1834,7 +1831,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
         <v>143</v>
       </c>
@@ -1851,7 +1848,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
         <v>146</v>
       </c>
@@ -1861,14 +1858,14 @@
       <c r="D28" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="E28" s="12" t="s">
+      <c r="E28" s="11" t="s">
         <v>163</v>
       </c>
       <c r="F28" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6">
       <c r="A29" t="s">
         <v>148</v>
       </c>
@@ -1885,7 +1882,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6">
       <c r="A30" t="s">
         <v>150</v>
       </c>
@@ -1902,7 +1899,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6">
       <c r="A31" t="s">
         <v>152</v>
       </c>
@@ -1919,7 +1916,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6">
       <c r="A32" t="s">
         <v>153</v>
       </c>
@@ -1936,11 +1933,11 @@
         <v>130</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7">
       <c r="A33" t="s">
         <v>161</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="B33" s="13" t="s">
         <v>162</v>
       </c>
       <c r="C33" t="s">
@@ -1949,7 +1946,7 @@
       <c r="D33" t="s">
         <v>7</v>
       </c>
-      <c r="E33" s="11" t="s">
+      <c r="E33" s="10" t="s">
         <v>163</v>
       </c>
       <c r="F33" t="s">
@@ -1959,7 +1956,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7">
       <c r="A34" t="s">
         <v>154</v>
       </c>
@@ -1976,7 +1973,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7">
       <c r="A35" t="s">
         <v>156</v>
       </c>
@@ -2009,17 +2006,17 @@
       <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.625" customWidth="1"/>
-    <col min="4" max="4" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="78.75" customWidth="1"/>
-    <col min="6" max="6" width="12.375" customWidth="1"/>
+    <col min="1" max="1" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" customWidth="1"/>
+    <col min="4" max="4" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="78.6640625" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2039,7 +2036,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>64</v>
       </c>
@@ -2056,7 +2053,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>64</v>
       </c>
@@ -2073,7 +2070,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>64</v>
       </c>
@@ -2090,7 +2087,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>64</v>
       </c>
@@ -2107,7 +2104,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>64</v>
       </c>
@@ -2124,7 +2121,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>64</v>
       </c>
@@ -2141,7 +2138,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>64</v>
       </c>
@@ -2158,7 +2155,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>64</v>
       </c>
@@ -2175,7 +2172,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>64</v>
       </c>
@@ -2192,7 +2189,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>64</v>
       </c>
@@ -2209,7 +2206,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>89</v>
       </c>
@@ -2226,7 +2223,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>89</v>
       </c>
@@ -2243,7 +2240,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>89</v>
       </c>
@@ -2260,7 +2257,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>89</v>
       </c>
@@ -2277,7 +2274,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>89</v>
       </c>
@@ -2294,7 +2291,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>89</v>
       </c>
@@ -2311,7 +2308,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>89</v>
       </c>
@@ -2328,7 +2325,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
         <v>107</v>
       </c>
@@ -2345,7 +2342,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
         <v>107</v>
       </c>
@@ -2362,7 +2359,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
         <v>107</v>
       </c>
@@ -2379,7 +2376,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
         <v>107</v>
       </c>
@@ -2396,7 +2393,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
         <v>114</v>
       </c>
@@ -2407,47 +2404,47 @@
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6">
       <c r="A29" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6">
       <c r="A30" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6">
       <c r="A31" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6">
       <c r="A32" t="s">
         <v>123</v>
       </c>

--- a/MianShiInfo/公司详情.xlsx
+++ b/MianShiInfo/公司详情.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\15_leetcoding\MianShiInfo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\04_leetcoding\MianShiInfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4A6C31F-D178-4078-9093-E021388BC83E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{252DCC64-2C91-47F7-A396-1F6990DA935A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16575" yWindow="90" windowWidth="12135" windowHeight="10230" xr2:uid="{AE34DDA8-51BA-4425-B233-805776FC3EEE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AE34DDA8-51BA-4425-B233-805776FC3EEE}"/>
   </bookViews>
   <sheets>
     <sheet name="已投" sheetId="1" r:id="rId1"/>
@@ -817,7 +817,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>邀请面试</t>
+    <t>通过面试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1275,7 +1275,7 @@
   <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
